--- a/doc/EDEp-Editor_vers02_JT-26042022_add&corr_DE-FFG-MH-17052022.xlsx
+++ b/doc/EDEp-Editor_vers02_JT-26042022_add&corr_DE-FFG-MH-17052022.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joern/dev/edep/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209568FC-8D31-5D46-94A0-7FD2D39BDBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-10380" yWindow="-26860" windowWidth="56800" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Tabellenblatt1" sheetId="1" r:id="rId4"/>
+    <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -27,19 +36,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">@ msPart: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <i/>
-        <color theme="1"/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>en bloc wiederholbare Eigenschaften bei Fragmenten</t>
     </r>
@@ -77,16 +87,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(Auswahlmenü) </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>deutsch / englisch</t>
     </r>
@@ -94,16 +106,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(Auswahlmenü) </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>german / english</t>
     </r>
@@ -120,16 +134,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(automatisch generierte ID, z.B.) </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>EEE000001</t>
     </r>
@@ -137,16 +153,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(automatisch generierte ID, z.B.) </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>EEE000001</t>
     </r>
@@ -166,16 +184,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(freie Eingabe, z.B.) </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>TM210152</t>
     </r>
@@ -183,1053 +203,1119 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(freie Eingabe, z.B.) </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>TM210152</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Link auf z.B. </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://www.trismegistos.org/text/210152</t>
+    </r>
+  </si>
+  <si>
+    <t>5)</t>
+  </si>
+  <si>
+    <t>Provinz / augusteische Region</t>
+  </si>
+  <si>
+    <t>Fundort - antike Provinz / augusteische Region</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Felder 5)-10a) zusammen mit den IDs von </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>pleiades</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> (--&gt; ant. Ortsname) und </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>geonames</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> (--&gt; mod. Ortsname) sowie den </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Koordinaten</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> (--&gt; exakte Fundstelle) jew. über eine </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Geo-ID</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> gesteuert</t>
+    </r>
+  </si>
+  <si>
+    <t>x (Geo-ID)</t>
+  </si>
+  <si>
+    <t>Site - Ancient province / Augustean region</t>
+  </si>
+  <si>
+    <t>Germania inferior</t>
+  </si>
+  <si>
+    <t>(Auswahlmenü, eagle-kontrVokab)</t>
+  </si>
+  <si>
+    <t>6)</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Fundort - modernes Land</t>
+  </si>
+  <si>
+    <t>Site - Modern country</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>(Auswahlmenü, eagle-kontrVokab, dt.)</t>
+  </si>
+  <si>
+    <t>(Auswahlmenü, eagle-kontrVokab, en.)</t>
+  </si>
+  <si>
+    <t>7)</t>
+  </si>
+  <si>
+    <t>moderne Region</t>
+  </si>
+  <si>
+    <t>Fundort - moderne Region</t>
+  </si>
+  <si>
+    <t>Site - Modern region</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>(Auswahlmenü, edh-normVokab)</t>
+  </si>
+  <si>
+    <t>Wenn hier etwas eingegeben wird --&gt; automatisch auch Land (6) eingeben</t>
+  </si>
+  <si>
+    <t>8)</t>
+  </si>
+  <si>
+    <t>Fundort (antik)</t>
+  </si>
+  <si>
+    <t>Fundort - antiker Ortsname</t>
+  </si>
+  <si>
+    <t>Site - Ancient name</t>
+  </si>
+  <si>
+    <t>(freie Eingabe, nach Pleiades)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Referenz pleiades-peripleo, z.B. </t>
+    </r>
+    <r>
+      <rPr>
         <u/>
-      </rPr>
-      <t>https://www.trismegistos.org/text/210152</t>
-    </r>
-  </si>
-  <si>
-    <t>5)</t>
-  </si>
-  <si>
-    <t>Provinz / augusteische Region</t>
-  </si>
-  <si>
-    <t>Fundort - antike Provinz / augusteische Region</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Felder 5)-10a) zusammen mit den IDs von </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>pleiades</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> (--&gt; ant. Ortsname) und </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>geonames</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> (--&gt; mod. Ortsname) sowie den </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>Koordinaten</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> (--&gt; exakte Fundstelle) jew. über eine </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>Geo-ID</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> gesteuert</t>
-    </r>
-  </si>
-  <si>
-    <t>x (Geo-ID)</t>
-  </si>
-  <si>
-    <t>Site - Ancient province / Augustean region</t>
-  </si>
-  <si>
-    <t>Germania inferior</t>
-  </si>
-  <si>
-    <t>(Auswahlmenü, eagle-kontrVokab)</t>
-  </si>
-  <si>
-    <t>6)</t>
-  </si>
-  <si>
-    <t>Land</t>
-  </si>
-  <si>
-    <t>Fundort - modernes Land</t>
-  </si>
-  <si>
-    <t>Site - Modern country</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>(Auswahlmenü, eagle-kontrVokab, dt.)</t>
-  </si>
-  <si>
-    <t>(Auswahlmenü, eagle-kontrVokab, en.)</t>
-  </si>
-  <si>
-    <t>7)</t>
-  </si>
-  <si>
-    <t>moderne Region</t>
-  </si>
-  <si>
-    <t>Fundort - moderne Region</t>
-  </si>
-  <si>
-    <t>Site - Modern region</t>
-  </si>
-  <si>
-    <t>Nordrhein-Westfalen</t>
-  </si>
-  <si>
-    <t>(Auswahlmenü, edh-normVokab)</t>
-  </si>
-  <si>
-    <t>Wenn hier etwas eingegeben wird --&gt; automatisch auch Land (6) eingeben</t>
-  </si>
-  <si>
-    <t>8)</t>
-  </si>
-  <si>
-    <t>Fundort (antik)</t>
-  </si>
-  <si>
-    <t>Fundort - antiker Ortsname</t>
-  </si>
-  <si>
-    <t>Site - Ancient name</t>
-  </si>
-  <si>
-    <t>(freie Eingabe, nach Pleiades)</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">Referenz pleiades-peripleo, z.B. </t>
-    </r>
-    <r>
-      <rPr>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://pleiades.stoa.org/places/207447</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Da es MH vorhin angesprochen hat: Bei iSicily heißt dieses Feld "Original Location" (DE)</t>
+    </r>
+  </si>
+  <si>
+    <t>9)</t>
+  </si>
+  <si>
+    <t>Fundort (modern)</t>
+  </si>
+  <si>
+    <t>Fundort - moderner Ortsname</t>
+  </si>
+  <si>
+    <t>Site - Modern name</t>
+  </si>
+  <si>
+    <t>(freie Eingabe, nach geonames)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selbe Frage wie bei 8). Außerdem auch hier gleiche Automatisierung wie zwischen 7) und 6). Referenz geonames, z.B. </t>
+    </r>
+    <r>
+      <rPr>
         <u/>
-      </rPr>
-      <t>https://pleiades.stoa.org/places/207447</t>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve"> - Da es MH vorhin angesprochen hat: Bei iSicily heißt dieses Feld "Original Location" (DE)</t>
-    </r>
-  </si>
-  <si>
-    <t>9)</t>
-  </si>
-  <si>
-    <t>Fundort (modern)</t>
-  </si>
-  <si>
-    <t>Fundort - moderner Ortsname</t>
-  </si>
-  <si>
-    <t>Site - Modern name</t>
-  </si>
-  <si>
-    <t>(freie Eingabe, nach geonames)</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">Selbe Frage wie bei 8). Außerdem auch hier gleiche Automatisierung wie zwischen 7) und 6). Referenz geonames, z.B. </t>
-    </r>
-    <r>
-      <rPr>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://www.geonames.org/3190103</t>
+    </r>
+  </si>
+  <si>
+    <t>10 a)</t>
+  </si>
+  <si>
+    <t>Fundstelle</t>
+  </si>
+  <si>
+    <t>Site - Find spot</t>
+  </si>
+  <si>
+    <t>(freie Eingabe)</t>
+  </si>
+  <si>
+    <t>Hier hatten wir darüber gesprochen, zwei Felder zu machen: 1x mit Geodaten (falls präzise Stelle) und 1x frei (falls nicht) (DE) --&gt; JT meinte dazu, daß auch nicht-spezifizierte Fundorte jew. eine spezif. ID bekommen, und man deshalb kein zweites Feld benötige (hoffe das richtig verstanden zu haben, FFG). Für ausführlicheren Prosatext daher ein eigenes Feld "Fundkontext" (dito, FFG)</t>
+  </si>
+  <si>
+    <t>10 b)</t>
+  </si>
+  <si>
+    <t>Fundkontext</t>
+  </si>
+  <si>
+    <t>Context of Provenance</t>
+  </si>
+  <si>
+    <t>11)</t>
+  </si>
+  <si>
+    <t>Fundjahr</t>
+  </si>
+  <si>
+    <t>Year of find</t>
+  </si>
+  <si>
+    <t>205 AD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">(Auswahlmenü) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>JJJJ/MM/TT / vor JJJJ/MM/TT / nach JJJJ/MM/TT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> + (freie Eingabe)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">(Auswahlmenü) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>YYYY/MM/DD / before YYYY/MM/DD / after YYYY/MM/DD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> + (freie Eingabe)</t>
+    </r>
+  </si>
+  <si>
+    <t>Gelenkte Eingabe für freie Eingabe: a) JJJJ/MM/TT; b) vor / nach JJJJ/MM/TT [mit Bezug auf eine Referenz]; c) freie Eingabe bei sehr vagen Hinweisen: Ziel ist Abfragen gezielt nach Zeiträumen oder Daten zu ermöglichen</t>
+  </si>
+  <si>
+    <t>12 a)</t>
+  </si>
+  <si>
+    <t>Aufbewahrung</t>
+  </si>
+  <si>
+    <t>Last recorded location</t>
+  </si>
+  <si>
+    <t>(Auswahlmenü, nV)</t>
+  </si>
+  <si>
+    <t>(Auswahlmenü, edh-/edr-normVokab; freies Feld für Datum und für dort nicht erhaltene Aufbewahrungsorte)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">(Auswahlmenü, edh-/edr-normVokab, z.B.) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Trier, Rhein. Landesmus.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> + (freie Eingabe)</t>
+    </r>
+  </si>
+  <si>
+    <t>Bei iSicily heißt es "Last Recorded Location" (DE)</t>
+  </si>
+  <si>
+    <t>12 b)</t>
+  </si>
+  <si>
+    <t>Weitere Ereignisse</t>
+  </si>
+  <si>
+    <t>Other events</t>
+  </si>
+  <si>
+    <t>(freie Eingabe, aber ggf. mit Geodaten der Orte)</t>
+  </si>
+  <si>
+    <t>Zuordnung bei Publikation muss flexibel sein, ist so etwas möglich?</t>
+  </si>
+  <si>
+    <t>12 c)</t>
+  </si>
+  <si>
+    <t>Überlieferung</t>
+  </si>
+  <si>
+    <t>Transmission</t>
+  </si>
+  <si>
+    <t>(freie Eingabe, ggf. Zotero-referenziert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angabe von Zeichnungen, Scheden etc., die teilweise eine Bibl. Referenz haben </t>
+  </si>
+  <si>
+    <t>12 d)</t>
+  </si>
+  <si>
+    <t>Verfizierungsgrundlage</t>
+  </si>
+  <si>
+    <t>Basis of verification</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">(Auswahlmenü) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Autopsie / Abklatsch / Foto / Zeichnung / nicht gesehen + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">(freie Eingabe) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>NAME</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">(Auswahlmenü) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Autopsy / Squeeze / Photo / Drawing / not seen + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">(freie Eingabe) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>NAME</t>
+    </r>
+  </si>
+  <si>
+    <t>12 e)</t>
+  </si>
+  <si>
+    <t>Datum der Verifizierung</t>
+  </si>
+  <si>
+    <t>Date of verification</t>
+  </si>
+  <si>
+    <t>JJJJ/MM/TT</t>
+  </si>
+  <si>
+    <t>YYYY/MM/DD</t>
+  </si>
+  <si>
+    <t>13)</t>
+  </si>
+  <si>
+    <t>Erhaltung</t>
+  </si>
+  <si>
+    <t>Preservation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">(Auswahlmenü) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>vollständig erhalten / fragmentarisch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">(Auswahlmenü) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>complete / fragmentary</t>
+    </r>
+  </si>
+  <si>
+    <t>zuschaltbare Felder für Fragmente, z.B. Frg. a, Frg. b, Frg. c; Referenzierbarkeit zu den zugehörigen Abmessungen (19), 20), 38), 23)) gewährleisten</t>
+  </si>
+  <si>
+    <t>14)</t>
+  </si>
+  <si>
+    <t>Dekor</t>
+  </si>
+  <si>
+    <t>Decoration</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">(Auswahlmenü) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>ja / nein / unsicher</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">(Auswahlmenü) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>yes / no / uncertain</t>
+    </r>
+  </si>
+  <si>
+    <t>15)</t>
+  </si>
+  <si>
+    <t>Inschriftengattung</t>
+  </si>
+  <si>
+    <t>Type of inscription</t>
+  </si>
+  <si>
+    <t>(Auswahlmenü, eagle-kontrvokab, en.)</t>
+  </si>
+  <si>
+    <t>Bei iSicily "Epigraphic Type" (DE)</t>
+  </si>
+  <si>
+    <t>16 a)</t>
+  </si>
+  <si>
+    <t>Inschriftträger</t>
+  </si>
+  <si>
+    <t>Type of monument</t>
+  </si>
+  <si>
+    <t>Bei iSicily "Object Type" (DE)</t>
+  </si>
+  <si>
+    <t>16 b)</t>
+  </si>
+  <si>
+    <t>Beschreibung Inschriftträger</t>
+  </si>
+  <si>
+    <t>Description of monument</t>
+  </si>
+  <si>
+    <t>17)</t>
+  </si>
+  <si>
+    <t>Material Gruppe</t>
+  </si>
+  <si>
+    <t>18)</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>(Auswahlmenü, eagle-kontrvokab. dt.)</t>
+  </si>
+  <si>
+    <t>Hier nur "Stein" an Stelle von "chemische/magmatische (etc.) Gesteine" (DE); --&gt; Liste übergeordneter Material-Gruppen (Material Gruppe) mit der Liste spezifischer Steingruppen (Material) zusammenführen; d.h. interne Hierarchie beibehalten, aber in einer einzigen Liste (Material) abbilden; Auswahlmöglichkeit aus beiden Hierarchieebenen hat sich in der Praxis bewährt, da aus den Publikationen nicht immer das spezifische Gestein ersichtlich ist (FFG)</t>
+  </si>
+  <si>
+    <t>19)</t>
+  </si>
+  <si>
+    <t>Breite</t>
+  </si>
+  <si>
+    <t>Inschriftträger: Breite</t>
+  </si>
+  <si>
+    <t>Monument: Width</t>
+  </si>
+  <si>
+    <t>(freie Eingabe, z.B.) (Frg. a) -15</t>
+  </si>
+  <si>
+    <t>Referenzierbarkeit analog zu 13)</t>
+  </si>
+  <si>
+    <t>20)</t>
+  </si>
+  <si>
+    <t>Tiefe</t>
+  </si>
+  <si>
+    <t>Inschriftträger: Tiefe</t>
+  </si>
+  <si>
+    <t>Monument: Depth</t>
+  </si>
+  <si>
+    <t>(freie Eingabe, z.B.) 7,5</t>
+  </si>
+  <si>
+    <t>21)</t>
+  </si>
+  <si>
+    <t>IF-Höhe</t>
+  </si>
+  <si>
+    <t>Inschriftfeld: Höhe</t>
+  </si>
+  <si>
+    <t>Inscription field: Height</t>
+  </si>
+  <si>
+    <t>(freie Eingabe, z.B.) 20,3</t>
+  </si>
+  <si>
+    <t>22)</t>
+  </si>
+  <si>
+    <t>IF-Breite</t>
+  </si>
+  <si>
+    <t>Inschriftfeld: Breite</t>
+  </si>
+  <si>
+    <t>Inscription field: Width</t>
+  </si>
+  <si>
+    <t>(freie Eingabe, z.B.) 12</t>
+  </si>
+  <si>
+    <t>23)</t>
+  </si>
+  <si>
+    <t>Buchstabenhöhe</t>
+  </si>
+  <si>
+    <t>Letter size</t>
+  </si>
+  <si>
+    <t>(freie Eingabe, z.B.) 7-3,5</t>
+  </si>
+  <si>
+    <t>24)</t>
+  </si>
+  <si>
+    <t>Metrik</t>
+  </si>
+  <si>
+    <t>Metre</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">(Auswahlmenü) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>ja / nein / partim</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">(Auswahlmenü) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>yes / no / partim</t>
+    </r>
+  </si>
+  <si>
+    <t>25)</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(Auswahlmenü, multiselect) G</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>riechisch / Hebräisch / Iberisch / Italisch / Keltisch / Lateinisch / Numidisch / Palmyrisch / Phönizisch-Punisch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> sonstige</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">(Auswahlmenü, multiselect) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Celtic, Greek, Hebrew, Iberian, Italic, Latin, Numidian, Palmyrenic, Phoenician-Punic, other</t>
+    </r>
+  </si>
+  <si>
+    <t>26)</t>
+  </si>
+  <si>
+    <t>Datierung Tag/Monat</t>
+  </si>
+  <si>
+    <t>Datierung: Tag</t>
+  </si>
+  <si>
+    <t>Chronological data: Day</t>
+  </si>
+  <si>
+    <t>(Auswahlmenü) 1-31</t>
+  </si>
+  <si>
+    <t>27)</t>
+  </si>
+  <si>
+    <t>Datierung Jahr</t>
+  </si>
+  <si>
+    <t>Datierung: Jahr(e)</t>
+  </si>
+  <si>
+    <t>Chronological data: Year(s)</t>
+  </si>
+  <si>
+    <t>(freie Eingabe: Möglichkeiten: Fixdatum / Zeitspanne)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">@ Zeitspanne: zwei Felder; Varianten 1-50, 51-100, 1-100, 1-30, 71-100, 31-70 (für Jh., Jh.-Hälften/-Drittel) bzw. -31-14 (für iul.-claud.), 69-96 (für flav.), 117-138 (für hadrian.) usw. sowie tpq-taq-Angaben. - auch </t>
+    </r>
+    <r>
+      <rPr>
         <u/>
-      </rPr>
-      <t>https://www.geonames.org/3190103</t>
-    </r>
-  </si>
-  <si>
-    <t>10 a)</t>
-  </si>
-  <si>
-    <t>Fundstelle</t>
-  </si>
-  <si>
-    <t>Site - Find spot</t>
-  </si>
-  <si>
-    <t>(freie Eingabe)</t>
-  </si>
-  <si>
-    <t>Hier hatten wir darüber gesprochen, zwei Felder zu machen: 1x mit Geodaten (falls präzise Stelle) und 1x frei (falls nicht) (DE) --&gt; JT meinte dazu, daß auch nicht-spezifizierte Fundorte jew. eine spezif. ID bekommen, und man deshalb kein zweites Feld benötige (hoffe das richtig verstanden zu haben, FFG). Für ausführlicheren Prosatext daher ein eigenes Feld "Fundkontext" (dito, FFG)</t>
-  </si>
-  <si>
-    <t>10 b)</t>
-  </si>
-  <si>
-    <t>Fundkontext</t>
-  </si>
-  <si>
-    <t>Context of Provenance</t>
-  </si>
-  <si>
-    <t>11)</t>
-  </si>
-  <si>
-    <t>Fundjahr</t>
-  </si>
-  <si>
-    <t>Year of find</t>
-  </si>
-  <si>
-    <t>205 AD</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://perio.do/en/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ansehen </t>
+    </r>
+  </si>
+  <si>
+    <t>28)</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(Auswahlmenü) </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>JJJJ/MM/TT / vor JJJJ/MM/TT / nach JJJJ/MM/TT</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> + (freie Eingabe)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>pagan / jüdisch / christlich</t>
+    </r>
+  </si>
+  <si>
+    <t>29)</t>
+  </si>
+  <si>
+    <t>Sozial-/Wirtschafts-/Rechtsgeschichte</t>
+  </si>
+  <si>
+    <t>30)</t>
+  </si>
+  <si>
+    <t>Social / economic / legal history</t>
+  </si>
+  <si>
+    <t>ja / nein</t>
+  </si>
+  <si>
+    <t>yes / no</t>
+  </si>
+  <si>
+    <t>31)</t>
+  </si>
+  <si>
+    <t>Geographie</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>32)</t>
+  </si>
+  <si>
+    <t>Militär</t>
+  </si>
+  <si>
+    <t>Military</t>
+  </si>
+  <si>
+    <t>33)</t>
+  </si>
+  <si>
+    <t>Stand der Bearbeitung</t>
+  </si>
+  <si>
+    <t>Status of Editing</t>
+  </si>
+  <si>
+    <t>(intern / öffentlich)</t>
+  </si>
+  <si>
+    <t>(internally / public)</t>
+  </si>
+  <si>
+    <t>34)</t>
+  </si>
+  <si>
+    <t>Paläographie</t>
+  </si>
+  <si>
+    <t>Palaeography</t>
+  </si>
+  <si>
+    <t>(Auswahlmenü normVokab, CIL)</t>
+  </si>
+  <si>
+    <t>35 a)</t>
+  </si>
+  <si>
+    <t>Ältere Editionen</t>
+  </si>
+  <si>
+    <t>Previous editions</t>
+  </si>
+  <si>
+    <t>(freie Eingabe, Zotero-referenziert)</t>
+  </si>
+  <si>
+    <t>Freies Feld mit Zotero-Referenzen, unterscheidet sich von der Bibl. dadurch, dass hier nur Editionen der Inschrift genannt werden, nicht alle Werke, auf die verwiesen wird [ob dann die diese Editionen in der Bibl. noch ein zweites Mal vorkommen sollen, wie bisher gehandhabt, bleibt intern zu klären]</t>
+  </si>
+  <si>
+    <t>35 b)</t>
+  </si>
+  <si>
+    <t>Bibliographie</t>
+  </si>
+  <si>
+    <t>Bibliography</t>
+  </si>
+  <si>
+    <t>35 c)</t>
+  </si>
+  <si>
+    <t>Bilder (Zeichnungen, Fotos, Abklatsche)</t>
+  </si>
+  <si>
+    <t>Images (drawings, photographs, squeezes)</t>
+  </si>
+  <si>
+    <t>(freie Eingabe, aber ggf. Zotero-referenziert und mit Angabe der Personen)</t>
+  </si>
+  <si>
+    <t>Bibl. Hinweise auf Publikationen mit Abbildungen und/oder Archivalien (Inv.-Nr.) und/oder Korrespondenz u.ä.</t>
+  </si>
+  <si>
+    <t>35 d)</t>
+  </si>
+  <si>
+    <t>Abbildungen</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>Verknüpfung mit Bilddateien (URIs)</t>
+  </si>
+  <si>
+    <t>36)</t>
+  </si>
+  <si>
+    <t>textkritischer Apparat</t>
+  </si>
+  <si>
+    <t>Apparatus</t>
+  </si>
+  <si>
+    <t>37)</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>Commentary</t>
+  </si>
+  <si>
+    <t>weitere</t>
+  </si>
+  <si>
+    <t>38)</t>
+  </si>
+  <si>
+    <t>Inschriftträger: Höhe</t>
+  </si>
+  <si>
+    <t>Monument: Height</t>
+  </si>
+  <si>
+    <t>(freie Eingabe, z.B.) 30</t>
+  </si>
+  <si>
+    <t>39)</t>
+  </si>
+  <si>
+    <t>Ligatur</t>
+  </si>
+  <si>
+    <t>Ligature</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(Auswahlmenü) </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>YYYY/MM/DD / before YYYY/MM/DD / after YYYY/MM/DD</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> + (freie Eingabe)</t>
-    </r>
-  </si>
-  <si>
-    <t>Gelenkte Eingabe für freie Eingabe: a) JJJJ/MM/TT; b) vor / nach JJJJ/MM/TT [mit Bezug auf eine Referenz]; c) freie Eingabe bei sehr vagen Hinweisen: Ziel ist Abfragen gezielt nach Zeiträumen oder Daten zu ermöglichen</t>
-  </si>
-  <si>
-    <t>12 a)</t>
-  </si>
-  <si>
-    <t>Aufbewahrung</t>
-  </si>
-  <si>
-    <t>Last recorded location</t>
-  </si>
-  <si>
-    <t>(Auswahlmenü, nV)</t>
-  </si>
-  <si>
-    <t>(Auswahlmenü, edh-/edr-normVokab; freies Feld für Datum und für dort nicht erhaltene Aufbewahrungsorte)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">(Auswahlmenü, edh-/edr-normVokab, z.B.) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>Trier, Rhein. Landesmus.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> + (freie Eingabe)</t>
-    </r>
-  </si>
-  <si>
-    <t>Bei iSicily heißt es "Last Recorded Location" (DE)</t>
-  </si>
-  <si>
-    <t>12 b)</t>
-  </si>
-  <si>
-    <t>Weitere Ereignisse</t>
-  </si>
-  <si>
-    <t>Other events</t>
-  </si>
-  <si>
-    <t>(freie Eingabe, aber ggf. mit Geodaten der Orte)</t>
-  </si>
-  <si>
-    <t>Zuordnung bei Publikation muss flexibel sein, ist so etwas möglich?</t>
-  </si>
-  <si>
-    <t>12 c)</t>
-  </si>
-  <si>
-    <t>Überlieferung</t>
-  </si>
-  <si>
-    <t>Transmission</t>
-  </si>
-  <si>
-    <t>(freie Eingabe, ggf. Zotero-referenziert)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angabe von Zeichnungen, Scheden etc., die teilweise eine Bibl. Referenz haben </t>
-  </si>
-  <si>
-    <t>12 d)</t>
-  </si>
-  <si>
-    <t>Verfizierungsgrundlage</t>
-  </si>
-  <si>
-    <t>Basis of verification</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>ja / nein</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(Auswahlmenü) </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Autopsie / Abklatsch / Foto / Zeichnung / nicht gesehen + </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">(freie Eingabe) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>NAME</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">(Auswahlmenü) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Autopsy / Squeeze / Photo / Drawing / not seen + </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">(freie Eingabe) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>NAME</t>
-    </r>
-  </si>
-  <si>
-    <t>12 e)</t>
-  </si>
-  <si>
-    <t>Datum der Verifizierung</t>
-  </si>
-  <si>
-    <t>Date of verification</t>
-  </si>
-  <si>
-    <t>JJJJ/MM/TT</t>
-  </si>
-  <si>
-    <t>YYYY/MM/DD</t>
-  </si>
-  <si>
-    <t>13)</t>
-  </si>
-  <si>
-    <t>Erhaltung</t>
-  </si>
-  <si>
-    <t>Preservation</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">(Auswahlmenü) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>vollständig erhalten / fragmentarisch</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">(Auswahlmenü) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>complete / fragmentary</t>
-    </r>
-  </si>
-  <si>
-    <t>zuschaltbare Felder für Fragmente, z.B. Frg. a, Frg. b, Frg. c; Referenzierbarkeit zu den zugehörigen Abmessungen (19), 20), 38), 23)) gewährleisten</t>
-  </si>
-  <si>
-    <t>14)</t>
-  </si>
-  <si>
-    <t>Dekor</t>
-  </si>
-  <si>
-    <t>Decoration</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">(Auswahlmenü) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>ja / nein / unsicher</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">(Auswahlmenü) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>yes / no / uncertain</t>
-    </r>
-  </si>
-  <si>
-    <t>15)</t>
-  </si>
-  <si>
-    <t>Inschriftengattung</t>
-  </si>
-  <si>
-    <t>Type of inscription</t>
-  </si>
-  <si>
-    <t>(Auswahlmenü, eagle-kontrvokab, en.)</t>
-  </si>
-  <si>
-    <t>Bei iSicily "Epigraphic Type" (DE)</t>
-  </si>
-  <si>
-    <t>16 a)</t>
-  </si>
-  <si>
-    <t>Inschriftträger</t>
-  </si>
-  <si>
-    <t>Type of monument</t>
-  </si>
-  <si>
-    <t>Bei iSicily "Object Type" (DE)</t>
-  </si>
-  <si>
-    <t>16 b)</t>
-  </si>
-  <si>
-    <t>Beschreibung Inschriftträger</t>
-  </si>
-  <si>
-    <t>Description of monument</t>
-  </si>
-  <si>
-    <t>17)</t>
-  </si>
-  <si>
-    <t>Material Gruppe</t>
-  </si>
-  <si>
-    <t>18)</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>(Auswahlmenü, eagle-kontrvokab. dt.)</t>
-  </si>
-  <si>
-    <t>Hier nur "Stein" an Stelle von "chemische/magmatische (etc.) Gesteine" (DE); --&gt; Liste übergeordneter Material-Gruppen (Material Gruppe) mit der Liste spezifischer Steingruppen (Material) zusammenführen; d.h. interne Hierarchie beibehalten, aber in einer einzigen Liste (Material) abbilden; Auswahlmöglichkeit aus beiden Hierarchieebenen hat sich in der Praxis bewährt, da aus den Publikationen nicht immer das spezifische Gestein ersichtlich ist (FFG)</t>
-  </si>
-  <si>
-    <t>19)</t>
-  </si>
-  <si>
-    <t>Breite</t>
-  </si>
-  <si>
-    <t>Inschriftträger: Breite</t>
-  </si>
-  <si>
-    <t>Monument: Width</t>
-  </si>
-  <si>
-    <t>(freie Eingabe, z.B.) (Frg. a) -15</t>
-  </si>
-  <si>
-    <t>Referenzierbarkeit analog zu 13)</t>
-  </si>
-  <si>
-    <t>20)</t>
-  </si>
-  <si>
-    <t>Tiefe</t>
-  </si>
-  <si>
-    <t>Inschriftträger: Tiefe</t>
-  </si>
-  <si>
-    <t>Monument: Depth</t>
-  </si>
-  <si>
-    <t>(freie Eingabe, z.B.) 7,5</t>
-  </si>
-  <si>
-    <t>21)</t>
-  </si>
-  <si>
-    <t>IF-Höhe</t>
-  </si>
-  <si>
-    <t>Inschriftfeld: Höhe</t>
-  </si>
-  <si>
-    <t>Inscription field: Height</t>
-  </si>
-  <si>
-    <t>(freie Eingabe, z.B.) 20,3</t>
-  </si>
-  <si>
-    <t>22)</t>
-  </si>
-  <si>
-    <t>IF-Breite</t>
-  </si>
-  <si>
-    <t>Inschriftfeld: Breite</t>
-  </si>
-  <si>
-    <t>Inscription field: Width</t>
-  </si>
-  <si>
-    <t>(freie Eingabe, z.B.) 12</t>
-  </si>
-  <si>
-    <t>23)</t>
-  </si>
-  <si>
-    <t>Buchstabenhöhe</t>
-  </si>
-  <si>
-    <t>Letter size</t>
-  </si>
-  <si>
-    <t>(freie Eingabe, z.B.) 7-3,5</t>
-  </si>
-  <si>
-    <t>24)</t>
-  </si>
-  <si>
-    <t>Metrik</t>
-  </si>
-  <si>
-    <t>Metre</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">(Auswahlmenü) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>ja / nein / partim</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">(Auswahlmenü) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>yes / no / partim</t>
-    </r>
-  </si>
-  <si>
-    <t>25)</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>(Auswahlmenü, multiselect) G</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>riechisch / Hebräisch / Iberisch / Italisch / Keltisch / Lateinisch / Numidisch / Palmyrisch / Phönizisch-Punisch</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> /</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> sonstige</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">(Auswahlmenü, multiselect) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>Celtic, Greek, Hebrew, Iberian, Italic, Latin, Numidian, Palmyrenic, Phoenician-Punic, other</t>
-    </r>
-  </si>
-  <si>
-    <t>26)</t>
-  </si>
-  <si>
-    <t>Datierung Tag/Monat</t>
-  </si>
-  <si>
-    <t>Datierung: Tag</t>
-  </si>
-  <si>
-    <t>Chronological data: Day</t>
-  </si>
-  <si>
-    <t>(Auswahlmenü) 1-31</t>
-  </si>
-  <si>
-    <t>27)</t>
-  </si>
-  <si>
-    <t>Datierung Jahr</t>
-  </si>
-  <si>
-    <t>Datierung: Jahr(e)</t>
-  </si>
-  <si>
-    <t>Chronological data: Year(s)</t>
-  </si>
-  <si>
-    <t>(freie Eingabe: Möglichkeiten: Fixdatum / Zeitspanne)</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">@ Zeitspanne: zwei Felder; Varianten 1-50, 51-100, 1-100, 1-30, 71-100, 31-70 (für Jh., Jh.-Hälften/-Drittel) bzw. -31-14 (für iul.-claud.), 69-96 (für flav.), 117-138 (für hadrian.) usw. sowie tpq-taq-Angaben. - auch </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://perio.do/en/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve"> ansehen </t>
-    </r>
-  </si>
-  <si>
-    <t>28)</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">(Auswahlmenü) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>pagan / jüdisch / christlich</t>
-    </r>
-  </si>
-  <si>
-    <t>29)</t>
-  </si>
-  <si>
-    <t>Sozial-/Wirtschafts-/Rechtsgeschichte</t>
-  </si>
-  <si>
-    <t>30)</t>
-  </si>
-  <si>
-    <t>Social / economic / legal history</t>
-  </si>
-  <si>
-    <t>ja / nein</t>
-  </si>
-  <si>
-    <t>yes / no</t>
-  </si>
-  <si>
-    <t>31)</t>
-  </si>
-  <si>
-    <t>Geographie</t>
-  </si>
-  <si>
-    <t>Geography</t>
-  </si>
-  <si>
-    <t>32)</t>
-  </si>
-  <si>
-    <t>Militär</t>
-  </si>
-  <si>
-    <t>Military</t>
-  </si>
-  <si>
-    <t>33)</t>
-  </si>
-  <si>
-    <t>Stand der Bearbeitung</t>
-  </si>
-  <si>
-    <t>Status of Editing</t>
-  </si>
-  <si>
-    <t>(intern / öffentlich)</t>
-  </si>
-  <si>
-    <t>(internally / public)</t>
-  </si>
-  <si>
-    <t>34)</t>
-  </si>
-  <si>
-    <t>Paläographie</t>
-  </si>
-  <si>
-    <t>Palaeography</t>
-  </si>
-  <si>
-    <t>(Auswahlmenü normVokab, CIL)</t>
-  </si>
-  <si>
-    <t>35 a)</t>
-  </si>
-  <si>
-    <t>Ältere Editionen</t>
-  </si>
-  <si>
-    <t>Previous editions</t>
-  </si>
-  <si>
-    <t>(freie Eingabe, Zotero-referenziert)</t>
-  </si>
-  <si>
-    <t>Freies Feld mit Zotero-Referenzen, unterscheidet sich von der Bibl. dadurch, dass hier nur Editionen der Inschrift genannt werden, nicht alle Werke, auf die verwiesen wird [ob dann die diese Editionen in der Bibl. noch ein zweites Mal vorkommen sollen, wie bisher gehandhabt, bleibt intern zu klären]</t>
-  </si>
-  <si>
-    <t>35 b)</t>
-  </si>
-  <si>
-    <t>Bibliographie</t>
-  </si>
-  <si>
-    <t>Bibliography</t>
-  </si>
-  <si>
-    <t>35 c)</t>
-  </si>
-  <si>
-    <t>Bilder (Zeichnungen, Fotos, Abklatsche)</t>
-  </si>
-  <si>
-    <t>Images (drawings, photographs, squeezes)</t>
-  </si>
-  <si>
-    <t>(freie Eingabe, aber ggf. Zotero-referenziert und mit Angabe der Personen)</t>
-  </si>
-  <si>
-    <t>Bibl. Hinweise auf Publikationen mit Abbildungen und/oder Archivalien (Inv.-Nr.) und/oder Korrespondenz u.ä.</t>
-  </si>
-  <si>
-    <t>35 d)</t>
-  </si>
-  <si>
-    <t>Abbildungen</t>
-  </si>
-  <si>
-    <t>Images</t>
-  </si>
-  <si>
-    <t>Verknüpfung mit Bilddateien (URIs)</t>
-  </si>
-  <si>
-    <t>36)</t>
-  </si>
-  <si>
-    <t>textkritischer Apparat</t>
-  </si>
-  <si>
-    <t>Apparatus</t>
-  </si>
-  <si>
-    <t>37)</t>
-  </si>
-  <si>
-    <t>Kommentar</t>
-  </si>
-  <si>
-    <t>Commentary</t>
-  </si>
-  <si>
-    <t>weitere</t>
-  </si>
-  <si>
-    <t>38)</t>
-  </si>
-  <si>
-    <t>Inschriftträger: Höhe</t>
-  </si>
-  <si>
-    <t>Monument: Height</t>
-  </si>
-  <si>
-    <t>(freie Eingabe, z.B.) 30</t>
-  </si>
-  <si>
-    <t>39)</t>
-  </si>
-  <si>
-    <t>Ligatur</t>
-  </si>
-  <si>
-    <t>Ligature</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">(Auswahlmenü) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>ja / nein</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">(Auswahlmenü) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>yes / no</t>
     </r>
@@ -1328,22 +1414,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -1351,68 +1439,106 @@
     <font>
       <b/>
       <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
       <strike/>
+      <sz val="10"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <strike/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Arial&quot;"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1504,153 +1630,129 @@
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFD5A6BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="56">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1840,39 +1942,42 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.25"/>
-    <col customWidth="1" min="2" max="2" width="28.88"/>
-    <col customWidth="1" min="3" max="3" width="37.0"/>
-    <col customWidth="1" min="4" max="4" width="24.63"/>
-    <col customWidth="1" min="5" max="5" width="15.63"/>
-    <col customWidth="1" min="6" max="6" width="31.38"/>
-    <col customWidth="1" min="7" max="7" width="28.75"/>
-    <col customWidth="1" min="8" max="8" width="68.88"/>
-    <col customWidth="1" min="9" max="9" width="64.0"/>
-    <col customWidth="1" min="10" max="10" width="24.75"/>
-    <col customWidth="1" min="11" max="11" width="107.25"/>
-    <col customWidth="1" min="28" max="28" width="32.5"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="118.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="11" max="11" width="107.1640625" customWidth="1"/>
+    <col min="28" max="28" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1906,7 +2011,7 @@
       </c>
       <c r="AB1" s="9"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
@@ -1915,7 +2020,7 @@
       </c>
       <c r="G2" s="12"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -1936,7 +2041,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>17</v>
       </c>
@@ -1962,7 +2067,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
@@ -1980,7 +2085,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="12"/>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="45" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="10" t="s">
@@ -1990,7 +2095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1">
       <c r="A6" s="19" t="s">
         <v>29</v>
       </c>
@@ -2000,10 +2105,10 @@
       <c r="C6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="44" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -2020,7 +2125,7 @@
       </c>
       <c r="K6" s="19"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>37</v>
       </c>
@@ -2030,6 +2135,8 @@
       <c r="C7" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="11" t="s">
         <v>40</v>
       </c>
@@ -2042,9 +2149,9 @@
       <c r="I7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8">
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>44</v>
       </c>
@@ -2054,6 +2161,8 @@
       <c r="C8" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="11" t="s">
         <v>47</v>
       </c>
@@ -2070,7 +2179,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>51</v>
       </c>
@@ -2080,6 +2189,8 @@
       <c r="C9" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="11" t="s">
         <v>54</v>
       </c>
@@ -2090,11 +2201,11 @@
       <c r="I9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>57</v>
       </c>
@@ -2104,6 +2215,8 @@
       <c r="C10" s="11" t="s">
         <v>59</v>
       </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="11" t="s">
         <v>60</v>
       </c>
@@ -2114,11 +2227,11 @@
       <c r="I10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>63</v>
       </c>
@@ -2128,6 +2241,8 @@
       <c r="C11" s="11" t="s">
         <v>64</v>
       </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="11" t="s">
         <v>65</v>
       </c>
@@ -2139,7 +2254,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>68</v>
       </c>
@@ -2160,7 +2275,7 @@
       </c>
       <c r="K12" s="19"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>71</v>
       </c>
@@ -2190,7 +2305,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>78</v>
       </c>
@@ -2220,12 +2335,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="49" t="s">
         <v>86</v>
       </c>
       <c r="D15" s="11"/>
@@ -2242,7 +2357,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1">
       <c r="A16" s="19" t="s">
         <v>90</v>
       </c>
@@ -2264,7 +2379,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="19" t="s">
         <v>95</v>
       </c>
@@ -2285,14 +2400,14 @@
       <c r="I17" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18">
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="19" t="s">
         <v>100</v>
       </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="49" t="s">
         <v>101</v>
       </c>
       <c r="D18" s="11"/>
@@ -2302,16 +2417,16 @@
       <c r="F18" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="25" t="s">
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A19" s="23" t="s">
         <v>105</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -2327,43 +2442,43 @@
       <c r="F19" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="23" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="25" t="s">
+    <row r="20" spans="1:11" s="51" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="49"/>
+      <c r="E20" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="24"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="25" t="s">
+      <c r="K20" s="53"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A21" s="23" t="s">
         <v>116</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -2383,12 +2498,12 @@
       <c r="I21" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="25" t="s">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A22" s="23" t="s">
         <v>121</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -2408,12 +2523,12 @@
       <c r="I22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="K22" s="23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="25" t="s">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A23" s="23" t="s">
         <v>125</v>
       </c>
       <c r="B23" s="12"/>
@@ -2428,19 +2543,19 @@
       <c r="H23" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K23" s="24"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="25" t="s">
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A24" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="K24" s="24"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="25" t="s">
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A25" s="23" t="s">
         <v>130</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -2460,12 +2575,12 @@
       <c r="I25" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="25" t="s">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A26" s="23" t="s">
         <v>134</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -2487,12 +2602,12 @@
       <c r="I26" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="K26" s="23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="25" t="s">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A27" s="23" t="s">
         <v>140</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -2514,12 +2629,12 @@
       <c r="I27" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="K27" s="23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A28" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -2541,10 +2656,10 @@
       <c r="I28" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="K28" s="28"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="27" t="s">
+      <c r="K28" s="26"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A29" s="25" t="s">
         <v>150</v>
       </c>
       <c r="B29" s="13" t="s">
@@ -2566,10 +2681,10 @@
       <c r="I29" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="K29" s="28"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="27" t="s">
+      <c r="K29" s="26"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A30" s="25" t="s">
         <v>155</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -2591,10 +2706,10 @@
       <c r="I30" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="K30" s="28"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="29" t="s">
+      <c r="K30" s="26"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A31" s="27" t="s">
         <v>159</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -2617,8 +2732,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="29" t="s">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A32" s="27" t="s">
         <v>164</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -2642,8 +2757,8 @@
       </c>
       <c r="K32" s="10"/>
     </row>
-    <row r="33">
-      <c r="A33" s="30" t="s">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A33" s="28" t="s">
         <v>168</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -2663,10 +2778,10 @@
       <c r="I33" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="K33" s="28"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="30" t="s">
+      <c r="K33" s="26"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A34" s="28" t="s">
         <v>173</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -2683,12 +2798,12 @@
       <c r="H34" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="K34" s="31" t="s">
+      <c r="K34" s="29" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="32" t="s">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A35" s="30" t="s">
         <v>179</v>
       </c>
       <c r="B35" s="13" t="s">
@@ -2705,26 +2820,26 @@
       <c r="H35" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="K35" s="24"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="33" t="s">
+      <c r="K35" s="22"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A36" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="K36" s="24"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="32" t="s">
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="K36" s="22"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A37" s="30" t="s">
         <v>184</v>
       </c>
       <c r="B37" s="13" t="s">
@@ -2738,17 +2853,17 @@
       <c r="F37" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="G37" s="36"/>
+      <c r="G37" s="34"/>
       <c r="H37" s="11" t="s">
         <v>186</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="K37" s="28"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="32" t="s">
+      <c r="K37" s="26"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A38" s="30" t="s">
         <v>188</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -2768,10 +2883,10 @@
       <c r="I38" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="K38" s="37"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="32" t="s">
+      <c r="K38" s="35"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A39" s="30" t="s">
         <v>191</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -2791,10 +2906,10 @@
       <c r="I39" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="K39" s="24"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="38" t="s">
+      <c r="K39" s="22"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A40" s="36" t="s">
         <v>194</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -2815,8 +2930,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="29" t="s">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A41" s="27" t="s">
         <v>199</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -2832,16 +2947,16 @@
       <c r="F41" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="H41" s="39" t="s">
+      <c r="H41" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="I41" s="39" t="s">
+      <c r="I41" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="K41" s="24"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="40" t="s">
+      <c r="K41" s="22"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A42" s="38" t="s">
         <v>203</v>
       </c>
       <c r="B42" s="12"/>
@@ -2858,12 +2973,12 @@
       <c r="H42" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K42" s="40" t="s">
+      <c r="K42" s="38" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="40" t="s">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A43" s="38" t="s">
         <v>208</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -2886,8 +3001,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="40" t="s">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A44" s="38" t="s">
         <v>211</v>
       </c>
       <c r="B44" s="12"/>
@@ -2904,12 +3019,12 @@
       <c r="H44" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="K44" s="40" t="s">
+      <c r="K44" s="38" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="40" t="s">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A45" s="38" t="s">
         <v>216</v>
       </c>
       <c r="B45" s="12"/>
@@ -2923,12 +3038,12 @@
       <c r="F45" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="K45" s="40" t="s">
+      <c r="K45" s="38" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="40" t="s">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A46" s="38" t="s">
         <v>220</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -2951,8 +3066,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="40" t="s">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A47" s="38" t="s">
         <v>223</v>
       </c>
       <c r="B47" s="13" t="s">
@@ -2973,13 +3088,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="41" t="s">
+    <row r="50" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A50" s="39" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="25" t="s">
+    <row r="51" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A51" s="23" t="s">
         <v>227</v>
       </c>
       <c r="B51" s="11"/>
@@ -2999,12 +3114,12 @@
       <c r="I51" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="K51" s="42" t="s">
+      <c r="K51" s="40" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="29" t="s">
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A52" s="27" t="s">
         <v>231</v>
       </c>
       <c r="B52" s="11"/>
@@ -3025,8 +3140,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="30" t="s">
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A53" s="28" t="s">
         <v>236</v>
       </c>
       <c r="B53" s="11"/>
@@ -3045,8 +3160,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="43" t="s">
+    <row r="54" spans="1:11" ht="13">
+      <c r="A54" s="41" t="s">
         <v>240</v>
       </c>
       <c r="B54" s="11"/>
@@ -3059,8 +3174,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="43" t="s">
+    <row r="55" spans="1:11" ht="13">
+      <c r="A55" s="41" t="s">
         <v>243</v>
       </c>
       <c r="C55" s="11" t="s">
@@ -3072,8 +3187,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="43" t="s">
+    <row r="56" spans="1:11" ht="13">
+      <c r="A56" s="41" t="s">
         <v>246</v>
       </c>
       <c r="C56" s="11" t="s">
@@ -3091,8 +3206,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="44" t="s">
+    <row r="57" spans="1:11" ht="13">
+      <c r="A57" s="42" t="s">
         <v>250</v>
       </c>
       <c r="B57" s="10"/>
@@ -3111,8 +3226,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="44" t="s">
+    <row r="58" spans="1:11" ht="13">
+      <c r="A58" s="42" t="s">
         <v>253</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -3131,8 +3246,8 @@
       </c>
       <c r="K58" s="10"/>
     </row>
-    <row r="59">
-      <c r="A59" s="44" t="s">
+    <row r="59" spans="1:11" ht="13">
+      <c r="A59" s="42" t="s">
         <v>257</v>
       </c>
       <c r="C59" s="11" t="s">
@@ -3150,8 +3265,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="44" t="s">
+    <row r="60" spans="1:11" ht="13">
+      <c r="A60" s="42" t="s">
         <v>261</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -3168,12 +3283,12 @@
       <c r="I60" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="K60" s="44" t="s">
+      <c r="K60" s="42" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="41"/>
+    <row r="62" spans="1:11" ht="13">
+      <c r="A62" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3181,11 +3296,11 @@
     <mergeCell ref="E6:E11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="K5"/>
-    <hyperlink r:id="rId2" ref="K9"/>
-    <hyperlink r:id="rId3" ref="K10"/>
-    <hyperlink r:id="rId4" ref="K34"/>
+    <hyperlink ref="K5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K34" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>